--- a/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD00457B</t>
+          <t>MFD00457</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1040,6 +1040,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1061,7 +1066,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD00458</t>
+          <t>MFD00457B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1070,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.72757248116658</v>
+        <v>55.72759959835934</v>
       </c>
       <c r="D10">
-        <v>12.53563694296029</v>
+        <v>12.5355689257637</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1092,12 +1097,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dyssegaardsparken, artsrigt krat under større træer langs hegn/sti</t>
+          <t>dyssegaardsparken, græsplæne</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD00459</t>
+          <t>MFD00458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1148,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>55.72719807435695</v>
+        <v>55.72757248116658</v>
       </c>
       <c r="D11">
-        <v>12.53521072761603</v>
+        <v>12.53563694296029</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1170,12 +1175,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">dyssegaardsparken, brink under lavt krat, unjder træer, langs rende/å (gentofte rende) </t>
+          <t>dyssegaardsparken, artsrigt krat under større træer langs hegn/sti</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1217,7 +1222,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD00460</t>
+          <t>MFD00459</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1225,29 +1230,35 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C12">
+        <v>55.72719807435695</v>
+      </c>
+      <c r="D12">
+        <v>12.53521072761603</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>garden</t>
+          <t>dyssegaardsparken</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>have, græsplæne</t>
+          <t xml:space="preserve">dyssegaardsparken, brink under lavt krat, unjder træer, langs rende/å (gentofte rende) </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1282,14 +1293,14 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD00461</t>
+          <t>MFD00460</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1314,12 +1325,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>have, studebed</t>
+          <t>have, græsplæne</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1361,7 +1372,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD00462</t>
+          <t>MFD00461</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1386,12 +1397,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>have, køkkenhave</t>
+          <t>have, studebed</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1433,7 +1444,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD00463</t>
+          <t>MFD00462</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1458,12 +1469,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>have, under snebær</t>
+          <t>have, køkkenhave</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1505,7 +1516,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD00464</t>
+          <t>MFD00463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1513,35 +1524,29 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C16">
-        <v>55.68130886033814</v>
-      </c>
-      <c r="D16">
-        <v>12.61156548528701</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>christiania</t>
+          <t>garden</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>02/11/2017 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>christiania,gangsti omgivet af træer, på vold</t>
+          <t>have, under snebær</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1561,7 +1566,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2017-11-07</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1576,14 +1581,14 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD00465</t>
+          <t>MFD00464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1614,12 +1619,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>christiania, skråning (vold) langs gangsti m krat og træer</t>
+          <t>christiania,gangsti omgivet af træer, på vold</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1661,7 +1666,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD00466</t>
+          <t>MFD00465</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1670,10 +1675,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>55.68104531644803</v>
+        <v>55.68130886033814</v>
       </c>
       <c r="D18">
-        <v>12.61157378343453</v>
+        <v>12.61156548528701</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1692,12 +1697,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>christiania, skråning langs voldgrav m. træer  og krat, siv langs kant af vandet</t>
+          <t>christiania, skråning (vold) langs gangsti m krat og træer</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1739,7 +1744,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD00467</t>
+          <t>MFD00466</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1748,34 +1753,34 @@
         </is>
       </c>
       <c r="C19">
-        <v>55.67669377641358</v>
+        <v>55.68104531644803</v>
       </c>
       <c r="D19">
-        <v>12.61998562576233</v>
+        <v>12.61157378343453</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>amager</t>
+          <t>christiania</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>amager, englignende område i industrikvarter</t>
+          <t>christiania, skråning langs voldgrav m. træer  og krat, siv langs kant af vandet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1810,14 +1815,14 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD00468</t>
+          <t>MFD00467</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1826,10 +1831,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>55.6774513731513</v>
+        <v>55.67669377641358</v>
       </c>
       <c r="D20">
-        <v>12.6196630545984</v>
+        <v>12.61998562576233</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1848,12 +1853,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>amager, jordvold ved industriområde, bevokset m. siv og anden beplantning</t>
+          <t>amager, englignende område i industrikvarter</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1895,7 +1900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD00469</t>
+          <t>MFD00468</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1904,10 +1909,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>55.67575282605788</v>
+        <v>55.6774513731513</v>
       </c>
       <c r="D21">
-        <v>12.6212403834344</v>
+        <v>12.6196630545984</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1926,12 +1931,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>amager, gammel grusvej på englignende område, overgroet m planter</t>
+          <t>amager, jordvold ved industriområde, bevokset m. siv og anden beplantning</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1973,7 +1978,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD00470</t>
+          <t>MFD00469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1982,10 +1987,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>55.69624979274094</v>
+        <v>55.67575282605788</v>
       </c>
       <c r="D22">
-        <v>12.60845596994312</v>
+        <v>12.6212403834344</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1999,17 +2004,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>refshaleøen</t>
+          <t>amager</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>refshaleøen, plæne i industriområde v vandet, grusvej vejen rundt, hav til to sider + industri</t>
+          <t>amager, gammel grusvej på englignende område, overgroet m planter</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2051,7 +2056,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD00471</t>
+          <t>MFD00470</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2060,10 +2065,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>55.69626793241255</v>
+        <v>55.69624979274094</v>
       </c>
       <c r="D23">
-        <v>12.60824746809072</v>
+        <v>12.60845596994312</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2082,12 +2087,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>refshaleøen, grusvej ved siden af græsareal i industriområde ud til vandet.</t>
+          <t>refshaleøen, plæne i industriområde v vandet, grusvej vejen rundt, hav til to sider + industri</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2129,7 +2134,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFD00472</t>
+          <t>MFD00471</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,10 +2143,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>55.69549212085531</v>
+        <v>55.69626793241255</v>
       </c>
       <c r="D24">
-        <v>12.61046072761528</v>
+        <v>12.60824746809072</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2160,12 +2165,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>refshaleøen, byggeplads, lav beplantning og mos i hjørne af byggeplads</t>
+          <t>refshaleøen, grusvej ved siden af græsareal i industriområde ud til vandet.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2207,7 +2212,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD00473</t>
+          <t>MFD00472</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2216,10 +2221,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.69015278820149</v>
+        <v>55.69549212085531</v>
       </c>
       <c r="D25">
-        <v>12.61684524110689</v>
+        <v>12.61046072761528</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2238,12 +2243,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>"refshaleøen, ""parkeringsplads"" stort asfalteret område i industriområde"</t>
+          <t>refshaleøen, byggeplads, lav beplantning og mos i hjørne af byggeplads</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2285,7 +2290,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD00474</t>
+          <t>MFD00473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2294,10 +2299,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.67958306176235</v>
+        <v>55.69015278820149</v>
       </c>
       <c r="D26">
-        <v>12.54497854110667</v>
+        <v>12.61684524110689</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2311,17 +2316,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>frederiksberg</t>
+          <t>refshaleøen</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>07/11/2017 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>frederiksberg, græsplæne i have</t>
+          <t>"refshaleøen, ""parkeringsplads"" stort asfalteret område i industriområde"</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2341,7 +2346,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2363,7 +2368,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD00475</t>
+          <t>MFD00474</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2372,10 +2377,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.67961951589354</v>
+        <v>55.67958306176235</v>
       </c>
       <c r="D27">
-        <v>12.5449618411067</v>
+        <v>12.54497854110667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2394,12 +2399,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>frederiksberg, blomsterbed i have</t>
+          <t>frederiksberg, græsplæne i have</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2441,7 +2446,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD00476</t>
+          <t>MFD00475</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2450,10 +2455,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.67965741751402</v>
+        <v>55.67961951589354</v>
       </c>
       <c r="D28">
-        <v>12.54502256994274</v>
+        <v>12.5449618411067</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2472,12 +2477,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>frederiksberg, snebærkrat i have</t>
+          <t>frederiksberg, blomsterbed i have</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2519,7 +2524,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD00477</t>
+          <t>MFD00476</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2528,10 +2533,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.67963911072034</v>
+        <v>55.67965741751402</v>
       </c>
       <c r="D29">
-        <v>12.54504999877877</v>
+        <v>12.54502256994274</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2550,12 +2555,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>frederiksberg, under frugtbuske i have</t>
+          <t>frederiksberg, snebærkrat i have</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2597,7 +2602,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD00478</t>
+          <t>MFD00477</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2606,19 +2611,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.67975136817218</v>
+        <v>55.67963911072034</v>
       </c>
       <c r="D30">
-        <v>12.5450214564509</v>
+        <v>12.54504999877877</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2628,12 +2633,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>frederiksberg, under stort asketræ i have</t>
+          <t>frederiksberg, under frugtbuske i have</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2668,14 +2673,14 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD00479</t>
+          <t>MFD00478</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2684,10 +2689,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.64124383121487</v>
+        <v>55.67975136817218</v>
       </c>
       <c r="D31">
-        <v>12.51249402761386</v>
+        <v>12.5450214564509</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2701,17 +2706,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>valbyparken</t>
+          <t>frederiksberg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">valbyparken, i krat </t>
+          <t>frederiksberg, under stort asketræ i have</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2753,7 +2758,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFD00480</t>
+          <t>MFD00479</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2762,10 +2767,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.64161502582539</v>
+        <v>55.64124383121487</v>
       </c>
       <c r="D32">
-        <v>12.51664291412214</v>
+        <v>12.51249402761386</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2784,12 +2789,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>valbyparken, græsplæne, åbent, nyslået</t>
+          <t xml:space="preserve">valbyparken, i krat </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2831,7 +2836,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFD00481</t>
+          <t>MFD00480</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2840,10 +2845,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>55.64096961747387</v>
+        <v>55.64161502582539</v>
       </c>
       <c r="D33">
-        <v>12.51735232576149</v>
+        <v>12.51664291412214</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2862,12 +2867,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>valbyparken, bed m lav beplantning + roser</t>
+          <t>valbyparken, græsplæne, åbent, nyslået</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2909,7 +2914,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFD00482</t>
+          <t>MFD00481</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2918,10 +2923,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>55.64071502846851</v>
+        <v>55.64096961747387</v>
       </c>
       <c r="D34">
-        <v>12.51756669877782</v>
+        <v>12.51735232576149</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2940,12 +2945,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>valbyparken, bed m roser og lavendel</t>
+          <t>valbyparken, bed m lav beplantning + roser</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2987,7 +2992,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFD00483</t>
+          <t>MFD00482</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2996,10 +3001,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>55.63955594449451</v>
+        <v>55.64071502846851</v>
       </c>
       <c r="D35">
-        <v>12.51771781226957</v>
+        <v>12.51756669877782</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3018,12 +3023,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>valbyparken, under høje takstræer i klynge</t>
+          <t>valbyparken, bed m roser og lavendel</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3065,7 +3070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFD00484</t>
+          <t>MFD00483</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3074,10 +3079,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>55.63700898361588</v>
+        <v>55.63955594449451</v>
       </c>
       <c r="D36">
-        <v>12.51820819692535</v>
+        <v>12.51771781226957</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3096,12 +3101,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>"valbyparken, beplantet skråning ned mod havet sten helt yders, m. siv"</t>
+          <t>valbyparken, under høje takstræer i klynge</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3143,7 +3148,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD00485</t>
+          <t>MFD00484</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3152,10 +3157,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>55.6294559632256</v>
+        <v>55.63700898361588</v>
       </c>
       <c r="D37">
-        <v>12.43575111226937</v>
+        <v>12.51820819692535</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3169,17 +3174,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>vestvolden</t>
+          <t>valbyparken</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>vestvolden, krat</t>
+          <t>"valbyparken, beplantet skråning ned mod havet sten helt yders, m. siv"</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3221,7 +3226,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD00486</t>
+          <t>MFD00485</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3230,10 +3235,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>55.62943176160251</v>
+        <v>55.6294559632256</v>
       </c>
       <c r="D38">
-        <v>12.43650708343331</v>
+        <v>12.43575111226937</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3252,12 +3257,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>vestvolden, langs å m træer helt ned til å-kant</t>
+          <t>vestvolden, krat</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3299,7 +3304,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD00487</t>
+          <t>MFD00486</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3308,10 +3313,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>55.62938928939251</v>
+        <v>55.62943176160251</v>
       </c>
       <c r="D39">
-        <v>12.43711912946603</v>
+        <v>12.43650708343331</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3330,12 +3335,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>vestvolden, gangsti m krat og træer langs siderne</t>
+          <t>vestvolden, langs å m træer helt ned til å-kant</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3377,7 +3382,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD00488</t>
+          <t>MFD00487</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3385,29 +3390,35 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C40">
+        <v>55.62938928939251</v>
+      </c>
+      <c r="D40">
+        <v>12.43711912946603</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>amager fælled</t>
+          <t>vestvolden</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>09/11/2017 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>"amager fælled, åbent græsland m højt græs, ex-losseplads, management?"</t>
+          <t>vestvolden, gangsti m krat og træer langs siderne</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3427,7 +3438,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2017-11-14</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3442,14 +3453,14 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD00489</t>
+          <t>MFD00488</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3459,12 +3470,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3474,12 +3485,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>"amager fælled, strandeng, åbent græsland,  kratrigt, græsses muligvis nogle gange af køer"</t>
+          <t>"amager fælled, åbent græsland m højt græs, ex-losseplads, management?"</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3514,50 +3525,44 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD00490</t>
+          <t>MFD00489</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>55.66285750568181</v>
-      </c>
-      <c r="D42">
-        <v>12.63996072874361</v>
+          <t>soil</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>city_pond</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amager strandpark</t>
+          <t>amager fælled</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>amager strandpark, prøve taget nogle skridt  ude i vandet</t>
+          <t>"amager fælled, strandeng, åbent græsland,  kratrigt, græsses muligvis nogle gange af køer"</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3567,7 +3572,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3582,45 +3587,45 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Enclosed water</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD00491</t>
+          <t>MFD00490</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>sediment</t>
         </is>
       </c>
       <c r="C43">
-        <v>55.66255145409768</v>
+        <v>55.66285750568181</v>
       </c>
       <c r="D43">
-        <v>12.6391973177146</v>
+        <v>12.63996072874361</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_pond</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3630,12 +3635,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>amager strandpark, klitter</t>
+          <t>amager strandpark, prøve taget nogle skridt  ude i vandet</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3645,7 +3650,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3660,45 +3665,45 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Greenspaces</t>
+          <t>Standing freshwater</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Enclosed water</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD00492</t>
+          <t>MFD00491</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sediment</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C44">
-        <v>55.66239075756032</v>
+        <v>55.66255145409768</v>
       </c>
       <c r="D44">
-        <v>12.63533451227018</v>
+        <v>12.6391973177146</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>city_pond</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3708,12 +3713,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>amager strandpark, taget i vandet i "lagune"</t>
+          <t>amager strandpark, klitter</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3723,7 +3728,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3738,24 +3743,24 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Enclosed water</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD00493</t>
+          <t>MFD00492</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3764,10 +3769,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>55.66217260254228</v>
+        <v>55.66239075756032</v>
       </c>
       <c r="D45">
-        <v>12.63504291412261</v>
+        <v>12.63533451227018</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3786,12 +3791,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>amager strandpark, "sump" mellem hav og græsp.</t>
+          <t>amager strandpark, taget i vandet i "lagune"</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3833,28 +3838,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD00494</t>
+          <t>MFD00493</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>sediment</t>
         </is>
       </c>
       <c r="C46">
-        <v>55.66210127681559</v>
+        <v>55.66217260254228</v>
       </c>
       <c r="D46">
-        <v>12.63396781227013</v>
+        <v>12.63504291412261</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_pond</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3864,12 +3869,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>amager strandpark, græsplæne</t>
+          <t>amager strandpark, "sump" mellem hav og græsp.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3879,7 +3884,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3894,24 +3899,24 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Greenspaces</t>
+          <t>Standing freshwater</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Enclosed water</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD00495</t>
+          <t>MFD00494</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3920,10 +3925,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>55.6466240941205</v>
+        <v>55.66210127681559</v>
       </c>
       <c r="D47">
-        <v>12.64399635459766</v>
+        <v>12.63396781227013</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3937,17 +3942,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-øren</t>
+          <t>amager strandpark</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/11/2017 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-øren, snebærkrat</t>
+          <t>amager strandpark, græsplæne</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3989,76 +3994,154 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>MFD00495</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>55.6466240941205</v>
+      </c>
+      <c r="D48">
+        <v>12.64399635459766</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>city_parks</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10-øren</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>14/11/2017 00:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10-øren, snebærkrat</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>P03_1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2017-11-14</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Greenspaces</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Parks</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>MFD00496</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C48">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C49">
         <v>55.64691501025987</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>12.64326072761407</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>city_parks</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>6410</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>10-øren</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-05-27</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>14/11/2017 00:00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>10-øren, rosenkrat langs vej</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>P03_1</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>P03_1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>2017-11-14</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Greenspaces</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>

--- a/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>02/11/2017 00:00</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>07/11/2017 00:00</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09/11/2017 00:00</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>14/11/2017 00:00</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">

--- a/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>55.70136648403587</v>
+        <v>55.7013664840359</v>
       </c>
       <c r="D3">
         <v>12.5650940276154</v>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>55.70104527623823</v>
+        <v>55.7010452762382</v>
       </c>
       <c r="D4">
-        <v>12.56569402761537</v>
+        <v>12.5656940276154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>55.70068759817029</v>
+        <v>55.7006875981703</v>
       </c>
       <c r="D5">
-        <v>12.56573329877932</v>
+        <v>12.5657332987793</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>55.70198769161825</v>
+        <v>55.7019876916182</v>
       </c>
       <c r="D6">
-        <v>12.57035961412361</v>
+        <v>12.5703596141236</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>55.7044300053526</v>
       </c>
       <c r="D7">
-        <v>12.56654999877938</v>
+        <v>12.5665499987794</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>55.72536939559217</v>
+        <v>55.7253693955922</v>
       </c>
       <c r="D8">
-        <v>12.58788815645203</v>
+        <v>12.587888156452</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>55.72759959835934</v>
+        <v>55.7275995983593</v>
       </c>
       <c r="D9">
         <v>12.5355689257637</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.72759959835934</v>
+        <v>55.7275995983593</v>
       </c>
       <c r="D10">
         <v>12.5355689257637</v>
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>55.72757248116658</v>
+        <v>55.7275724811666</v>
       </c>
       <c r="D11">
-        <v>12.53563694296029</v>
+        <v>12.5356369429603</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>55.72719807435695</v>
+        <v>55.7271980743569</v>
       </c>
       <c r="D12">
-        <v>12.53521072761603</v>
+        <v>12.535210727616</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1308,6 +1308,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C13">
+        <v>55.736284</v>
+      </c>
+      <c r="D13">
+        <v>12.526106</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>city_other</t>
@@ -1380,6 +1386,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C14">
+        <v>55.736327</v>
+      </c>
+      <c r="D14">
+        <v>12.526081</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>city_other</t>
@@ -1452,6 +1464,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C15">
+        <v>55.736281</v>
+      </c>
+      <c r="D15">
+        <v>12.526207</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>city_other</t>
@@ -1524,6 +1542,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C16">
+        <v>55.736357</v>
+      </c>
+      <c r="D16">
+        <v>12.526018</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>city_other</t>
@@ -1597,10 +1621,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>55.68130886033814</v>
+        <v>55.6813088603381</v>
       </c>
       <c r="D17">
-        <v>12.61156548528701</v>
+        <v>12.611565485287</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1675,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>55.68130886033814</v>
+        <v>55.6813088603381</v>
       </c>
       <c r="D18">
-        <v>12.61156548528701</v>
+        <v>12.611565485287</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1753,10 +1777,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>55.68104531644803</v>
+        <v>55.681045316448</v>
       </c>
       <c r="D19">
-        <v>12.61157378343453</v>
+        <v>12.6115737834345</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1831,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>55.67669377641358</v>
+        <v>55.6766937764136</v>
       </c>
       <c r="D20">
-        <v>12.61998562576233</v>
+        <v>12.6199856257623</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1987,7 +2011,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>55.67575282605788</v>
+        <v>55.6757528260579</v>
       </c>
       <c r="D22">
         <v>12.6212403834344</v>
@@ -2065,10 +2089,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>55.69624979274094</v>
+        <v>55.6962497927409</v>
       </c>
       <c r="D23">
-        <v>12.60845596994312</v>
+        <v>12.6084559699431</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2143,10 +2167,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>55.69626793241255</v>
+        <v>55.6962679324125</v>
       </c>
       <c r="D24">
-        <v>12.60824746809072</v>
+        <v>12.6082474680907</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2221,10 +2245,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.69549212085531</v>
+        <v>55.6954921208553</v>
       </c>
       <c r="D25">
-        <v>12.61046072761528</v>
+        <v>12.6104607276153</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2299,10 +2323,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.69015278820149</v>
+        <v>55.6901527882015</v>
       </c>
       <c r="D26">
-        <v>12.61684524110689</v>
+        <v>12.6168452411069</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2377,10 +2401,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.67958306176235</v>
+        <v>55.6795830617624</v>
       </c>
       <c r="D27">
-        <v>12.54497854110667</v>
+        <v>12.5449785411067</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2455,7 +2479,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.67961951589354</v>
+        <v>55.6796195158935</v>
       </c>
       <c r="D28">
         <v>12.5449618411067</v>
@@ -2533,10 +2557,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.67965741751402</v>
+        <v>55.679657417514</v>
       </c>
       <c r="D29">
-        <v>12.54502256994274</v>
+        <v>12.5450225699427</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2611,10 +2635,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.67963911072034</v>
+        <v>55.6796391107203</v>
       </c>
       <c r="D30">
-        <v>12.54504999877877</v>
+        <v>12.5450499987788</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2689,7 +2713,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.67975136817218</v>
+        <v>55.6797513681722</v>
       </c>
       <c r="D31">
         <v>12.5450214564509</v>
@@ -2767,10 +2791,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.64124383121487</v>
+        <v>55.6412438312149</v>
       </c>
       <c r="D32">
-        <v>12.51249402761386</v>
+        <v>12.5124940276139</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2845,10 +2869,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>55.64161502582539</v>
+        <v>55.6416150258254</v>
       </c>
       <c r="D33">
-        <v>12.51664291412214</v>
+        <v>12.5166429141221</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2923,10 +2947,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>55.64096961747387</v>
+        <v>55.6409696174739</v>
       </c>
       <c r="D34">
-        <v>12.51735232576149</v>
+        <v>12.5173523257615</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3001,10 +3025,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>55.64071502846851</v>
+        <v>55.6407150284685</v>
       </c>
       <c r="D35">
-        <v>12.51756669877782</v>
+        <v>12.5175666987778</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3079,10 +3103,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>55.63955594449451</v>
+        <v>55.6395559444945</v>
       </c>
       <c r="D36">
-        <v>12.51771781226957</v>
+        <v>12.5177178122696</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3157,10 +3181,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>55.63700898361588</v>
+        <v>55.6370089836159</v>
       </c>
       <c r="D37">
-        <v>12.51820819692535</v>
+        <v>12.5182081969254</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3238,7 +3262,7 @@
         <v>55.6294559632256</v>
       </c>
       <c r="D38">
-        <v>12.43575111226937</v>
+        <v>12.4357511122694</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3313,10 +3337,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>55.62943176160251</v>
+        <v>55.6294317616025</v>
       </c>
       <c r="D39">
-        <v>12.43650708343331</v>
+        <v>12.4365070834333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3391,10 +3415,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>55.62938928939251</v>
+        <v>55.6293892893925</v>
       </c>
       <c r="D40">
-        <v>12.43711912946603</v>
+        <v>12.437119129466</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3468,6 +3492,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C41">
+        <v>55.646318</v>
+      </c>
+      <c r="D41">
+        <v>12.5766</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>city_other</t>
@@ -3540,6 +3570,12 @@
           <t>soil</t>
         </is>
       </c>
+      <c r="C42">
+        <v>55.646477</v>
+      </c>
+      <c r="D42">
+        <v>12.582928</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>city_parks</t>
@@ -3613,10 +3649,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>55.66285750568181</v>
+        <v>55.6628575056818</v>
       </c>
       <c r="D43">
-        <v>12.63996072874361</v>
+        <v>12.6399607287436</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3691,7 +3727,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>55.66255145409768</v>
+        <v>55.6625514540977</v>
       </c>
       <c r="D44">
         <v>12.6391973177146</v>
@@ -3769,10 +3805,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>55.66239075756032</v>
+        <v>55.6623907575603</v>
       </c>
       <c r="D45">
-        <v>12.63533451227018</v>
+        <v>12.6353345122702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3847,10 +3883,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>55.66217260254228</v>
+        <v>55.6621726025423</v>
       </c>
       <c r="D46">
-        <v>12.63504291412261</v>
+        <v>12.6350429141226</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3925,10 +3961,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>55.66210127681559</v>
+        <v>55.6621012768156</v>
       </c>
       <c r="D47">
-        <v>12.63396781227013</v>
+        <v>12.6339678122701</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4006,7 +4042,7 @@
         <v>55.6466240941205</v>
       </c>
       <c r="D48">
-        <v>12.64399635459766</v>
+        <v>12.6439963545977</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4081,10 +4117,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>55.64691501025987</v>
+        <v>55.6469150102599</v>
       </c>
       <c r="D49">
-        <v>12.64326072761407</v>
+        <v>12.6432607276141</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>

--- a/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD00457B</t>
+          <t>MFD00458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.7275995983593</v>
+        <v>55.7275724811666</v>
       </c>
       <c r="D10">
-        <v>12.5355689257637</v>
+        <v>12.5356369429603</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dyssegaardsparken, græsplæne</t>
+          <t>dyssegaardsparken, artsrigt krat under større træer langs hegn/sti</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD00458</t>
+          <t>MFD00459</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>55.7275724811666</v>
+        <v>55.7271980743569</v>
       </c>
       <c r="D11">
-        <v>12.5356369429603</v>
+        <v>12.535210727616</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>dyssegaardsparken, artsrigt krat under større træer langs hegn/sti</t>
+          <t xml:space="preserve">dyssegaardsparken, brink under lavt krat, unjder træer, langs rende/å (gentofte rende) </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD00459</t>
+          <t>MFD00460</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1231,24 +1231,24 @@
         </is>
       </c>
       <c r="C12">
-        <v>55.7271980743569</v>
+        <v>55.736284</v>
       </c>
       <c r="D12">
-        <v>12.535210727616</v>
+        <v>12.526106</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>dyssegaardsparken</t>
+          <t>garden</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">dyssegaardsparken, brink under lavt krat, unjder træer, langs rende/å (gentofte rende) </t>
+          <t>have, græsplæne</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD00460</t>
+          <t>MFD00461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>55.736284</v>
+        <v>55.736327</v>
       </c>
       <c r="D13">
-        <v>12.526106</v>
+        <v>12.526081</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>have, græsplæne</t>
+          <t>have, studebed</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD00461</t>
+          <t>MFD00462</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>55.736327</v>
+        <v>55.736281</v>
       </c>
       <c r="D14">
-        <v>12.526081</v>
+        <v>12.526207</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>have, studebed</t>
+          <t>have, køkkenhave</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD00462</t>
+          <t>MFD00463</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>55.736281</v>
+        <v>55.736357</v>
       </c>
       <c r="D15">
-        <v>12.526207</v>
+        <v>12.526018</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>have, køkkenhave</t>
+          <t>have, under snebær</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD00463</t>
+          <t>MFD00464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1543,34 +1543,34 @@
         </is>
       </c>
       <c r="C16">
-        <v>55.736357</v>
+        <v>55.6813088603381</v>
       </c>
       <c r="D16">
-        <v>12.526018</v>
+        <v>12.611565485287</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>garden</t>
+          <t>christiania</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2017-11-02</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>have, under snebær</t>
+          <t>christiania,gangsti omgivet af træer, på vold</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2017-11-02</t>
+          <t>2017-11-07</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1605,14 +1605,14 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD00464</t>
+          <t>MFD00465</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>christiania,gangsti omgivet af træer, på vold</t>
+          <t>christiania, skråning (vold) langs gangsti m krat og træer</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD00465</t>
+          <t>MFD00466</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>55.6813088603381</v>
+        <v>55.681045316448</v>
       </c>
       <c r="D18">
-        <v>12.611565485287</v>
+        <v>12.6115737834345</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>christiania, skråning (vold) langs gangsti m krat og træer</t>
+          <t>christiania, skråning langs voldgrav m. træer  og krat, siv langs kant af vandet</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD00466</t>
+          <t>MFD00467</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1777,24 +1777,24 @@
         </is>
       </c>
       <c r="C19">
-        <v>55.681045316448</v>
+        <v>55.6766937764136</v>
       </c>
       <c r="D19">
-        <v>12.6115737834345</v>
+        <v>12.6199856257623</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>christiania</t>
+          <t>amager</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>christiania, skråning langs voldgrav m. træer  og krat, siv langs kant af vandet</t>
+          <t>amager, englignende område i industrikvarter</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1839,14 +1839,14 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD00467</t>
+          <t>MFD00468</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>55.6766937764136</v>
+        <v>55.6774513731513</v>
       </c>
       <c r="D20">
-        <v>12.6199856257623</v>
+        <v>12.6196630545984</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>amager, englignende område i industrikvarter</t>
+          <t>amager, jordvold ved industriområde, bevokset m. siv og anden beplantning</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD00468</t>
+          <t>MFD00469</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>55.6774513731513</v>
+        <v>55.6757528260579</v>
       </c>
       <c r="D21">
-        <v>12.6196630545984</v>
+        <v>12.6212403834344</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>amager, jordvold ved industriområde, bevokset m. siv og anden beplantning</t>
+          <t>amager, gammel grusvej på englignende område, overgroet m planter</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD00469</t>
+          <t>MFD00470</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>55.6757528260579</v>
+        <v>55.6962497927409</v>
       </c>
       <c r="D22">
-        <v>12.6212403834344</v>
+        <v>12.6084559699431</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>amager</t>
+          <t>refshaleøen</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>amager, gammel grusvej på englignende område, overgroet m planter</t>
+          <t>refshaleøen, plæne i industriområde v vandet, grusvej vejen rundt, hav til to sider + industri</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD00470</t>
+          <t>MFD00471</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>55.6962497927409</v>
+        <v>55.6962679324125</v>
       </c>
       <c r="D23">
-        <v>12.6084559699431</v>
+        <v>12.6082474680907</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>refshaleøen, plæne i industriområde v vandet, grusvej vejen rundt, hav til to sider + industri</t>
+          <t>refshaleøen, grusvej ved siden af græsareal i industriområde ud til vandet.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFD00471</t>
+          <t>MFD00472</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>55.6962679324125</v>
+        <v>55.6954921208553</v>
       </c>
       <c r="D24">
-        <v>12.6082474680907</v>
+        <v>12.6104607276153</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>refshaleøen, grusvej ved siden af græsareal i industriområde ud til vandet.</t>
+          <t>refshaleøen, byggeplads, lav beplantning og mos i hjørne af byggeplads</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD00472</t>
+          <t>MFD00473</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.6954921208553</v>
+        <v>55.6901527882015</v>
       </c>
       <c r="D25">
-        <v>12.6104607276153</v>
+        <v>12.6168452411069</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>refshaleøen, byggeplads, lav beplantning og mos i hjørne af byggeplads</t>
+          <t>"refshaleøen, ""parkeringsplads"" stort asfalteret område i industriområde"</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2314,7 +2314,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD00473</t>
+          <t>MFD00474</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.6901527882015</v>
+        <v>55.6795830617624</v>
       </c>
       <c r="D26">
-        <v>12.6168452411069</v>
+        <v>12.5449785411067</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2340,17 +2340,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>refshaleøen</t>
+          <t>frederiksberg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2017-11-07</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>"refshaleøen, ""parkeringsplads"" stort asfalteret område i industriområde"</t>
+          <t>frederiksberg, græsplæne i have</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2017-11-07</t>
+          <t>2017-11-09</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD00474</t>
+          <t>MFD00475</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.6795830617624</v>
+        <v>55.6796195158935</v>
       </c>
       <c r="D27">
-        <v>12.5449785411067</v>
+        <v>12.5449618411067</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>frederiksberg, græsplæne i have</t>
+          <t>frederiksberg, blomsterbed i have</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD00475</t>
+          <t>MFD00476</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.6796195158935</v>
+        <v>55.679657417514</v>
       </c>
       <c r="D28">
-        <v>12.5449618411067</v>
+        <v>12.5450225699427</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>frederiksberg, blomsterbed i have</t>
+          <t>frederiksberg, snebærkrat i have</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD00476</t>
+          <t>MFD00477</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.679657417514</v>
+        <v>55.6796391107203</v>
       </c>
       <c r="D29">
-        <v>12.5450225699427</v>
+        <v>12.5450499987788</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>frederiksberg, snebærkrat i have</t>
+          <t>frederiksberg, under frugtbuske i have</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD00477</t>
+          <t>MFD00478</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2635,19 +2635,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.6796391107203</v>
+        <v>55.6797513681722</v>
       </c>
       <c r="D30">
-        <v>12.5450499987788</v>
+        <v>12.5450214564509</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>frederiksberg, under frugtbuske i have</t>
+          <t>frederiksberg, under stort asketræ i have</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD00478</t>
+          <t>MFD00479</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.6797513681722</v>
+        <v>55.6412438312149</v>
       </c>
       <c r="D31">
-        <v>12.5450214564509</v>
+        <v>12.5124940276139</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>frederiksberg</t>
+          <t>valbyparken</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>frederiksberg, under stort asketræ i have</t>
+          <t xml:space="preserve">valbyparken, i krat </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFD00479</t>
+          <t>MFD00480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.6412438312149</v>
+        <v>55.6416150258254</v>
       </c>
       <c r="D32">
-        <v>12.5124940276139</v>
+        <v>12.5166429141221</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">valbyparken, i krat </t>
+          <t>valbyparken, græsplæne, åbent, nyslået</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFD00480</t>
+          <t>MFD00481</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>55.6416150258254</v>
+        <v>55.6409696174739</v>
       </c>
       <c r="D33">
-        <v>12.5166429141221</v>
+        <v>12.5173523257615</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>valbyparken, græsplæne, åbent, nyslået</t>
+          <t>valbyparken, bed m lav beplantning + roser</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFD00481</t>
+          <t>MFD00482</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>55.6409696174739</v>
+        <v>55.6407150284685</v>
       </c>
       <c r="D34">
-        <v>12.5173523257615</v>
+        <v>12.5175666987778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>valbyparken, bed m lav beplantning + roser</t>
+          <t>valbyparken, bed m roser og lavendel</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFD00482</t>
+          <t>MFD00483</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>55.6407150284685</v>
+        <v>55.6395559444945</v>
       </c>
       <c r="D35">
-        <v>12.5175666987778</v>
+        <v>12.5177178122696</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>valbyparken, bed m roser og lavendel</t>
+          <t>valbyparken, under høje takstræer i klynge</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3094,7 +3094,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFD00483</t>
+          <t>MFD00484</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>55.6395559444945</v>
+        <v>55.6370089836159</v>
       </c>
       <c r="D36">
-        <v>12.5177178122696</v>
+        <v>12.5182081969254</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>valbyparken, under høje takstræer i klynge</t>
+          <t>"valbyparken, beplantet skråning ned mod havet sten helt yders, m. siv"</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD00484</t>
+          <t>MFD00485</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>55.6370089836159</v>
+        <v>55.6294559632256</v>
       </c>
       <c r="D37">
-        <v>12.5182081969254</v>
+        <v>12.4357511122694</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>valbyparken</t>
+          <t>vestvolden</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>"valbyparken, beplantet skråning ned mod havet sten helt yders, m. siv"</t>
+          <t>vestvolden, krat</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD00485</t>
+          <t>MFD00486</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>55.6294559632256</v>
+        <v>55.6294317616025</v>
       </c>
       <c r="D38">
-        <v>12.4357511122694</v>
+        <v>12.4365070834333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>vestvolden, krat</t>
+          <t>vestvolden, langs å m træer helt ned til å-kant</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD00486</t>
+          <t>MFD00487</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>55.6294317616025</v>
+        <v>55.6293892893925</v>
       </c>
       <c r="D39">
-        <v>12.4365070834333</v>
+        <v>12.437119129466</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>vestvolden, langs å m træer helt ned til å-kant</t>
+          <t>vestvolden, gangsti m krat og træer langs siderne</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD00487</t>
+          <t>MFD00488</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3415,34 +3415,34 @@
         </is>
       </c>
       <c r="C40">
-        <v>55.6293892893925</v>
+        <v>55.646318</v>
       </c>
       <c r="D40">
-        <v>12.437119129466</v>
+        <v>12.5766</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_other</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>vestvolden</t>
+          <t>amager fælled</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>vestvolden, gangsti m krat og træer langs siderne</t>
+          <t>"amager fælled, åbent græsland m højt græs, ex-losseplads, management?"</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2017-11-09</t>
+          <t>2017-11-14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3477,14 +3477,14 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD00488</t>
+          <t>MFD00489</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3493,19 +3493,19 @@
         </is>
       </c>
       <c r="C41">
-        <v>55.646318</v>
+        <v>55.646477</v>
       </c>
       <c r="D41">
-        <v>12.5766</v>
+        <v>12.582928</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>city_other</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>"amager fælled, åbent græsland m højt græs, ex-losseplads, management?"</t>
+          <t>"amager fælled, strandeng, åbent græsland,  kratrigt, græsses muligvis nogle gange af køer"</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3555,40 +3555,40 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD00489</t>
+          <t>MFD00490</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>sediment</t>
         </is>
       </c>
       <c r="C42">
-        <v>55.646477</v>
+        <v>55.6628575056818</v>
       </c>
       <c r="D42">
-        <v>12.582928</v>
+        <v>12.6399607287436</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_pond</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amager fælled</t>
+          <t>amager strandpark</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>"amager fælled, strandeng, åbent græsland,  kratrigt, græsses muligvis nogle gange af køer"</t>
+          <t>amager strandpark, prøve taget nogle skridt  ude i vandet</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3623,45 +3623,45 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Greenspaces</t>
+          <t>Standing freshwater</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Enclosed water</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD00490</t>
+          <t>MFD00491</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sediment</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C43">
-        <v>55.6628575056818</v>
+        <v>55.6625514540977</v>
       </c>
       <c r="D43">
-        <v>12.6399607287436</v>
+        <v>12.6391973177146</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>city_pond</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>amager strandpark, prøve taget nogle skridt  ude i vandet</t>
+          <t>amager strandpark, klitter</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3701,45 +3701,45 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Enclosed water</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD00491</t>
+          <t>MFD00492</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>sediment</t>
         </is>
       </c>
       <c r="C44">
-        <v>55.6625514540977</v>
+        <v>55.6623907575603</v>
       </c>
       <c r="D44">
-        <v>12.6391973177146</v>
+        <v>12.6353345122702</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>city_parks</t>
+          <t>city_pond</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>amager strandpark, klitter</t>
+          <t>amager strandpark, taget i vandet i "lagune"</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3779,24 +3779,24 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Freshwater</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Greenspaces</t>
+          <t>Standing freshwater</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Parks</t>
+          <t>Enclosed water</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD00492</t>
+          <t>MFD00493</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>55.6623907575603</v>
+        <v>55.6621726025423</v>
       </c>
       <c r="D45">
-        <v>12.6353345122702</v>
+        <v>12.6350429141226</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>amager strandpark, taget i vandet i "lagune"</t>
+          <t>amager strandpark, "sump" mellem hav og græsp.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3874,28 +3874,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD00493</t>
+          <t>MFD00494</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sediment</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C46">
-        <v>55.6621726025423</v>
+        <v>55.6621012768156</v>
       </c>
       <c r="D46">
-        <v>12.6350429141226</v>
+        <v>12.6339678122701</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>city_pond</t>
+          <t>city_parks</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>amager strandpark, "sump" mellem hav og græsp.</t>
+          <t>amager strandpark, græsplæne</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3935,24 +3935,24 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Freshwater</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Standing freshwater</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Enclosed water</t>
+          <t>Parks</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD00494</t>
+          <t>MFD00495</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>55.6621012768156</v>
+        <v>55.6466240941205</v>
       </c>
       <c r="D47">
-        <v>12.6339678122701</v>
+        <v>12.6439963545977</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>amager strandpark</t>
+          <t>10-øren</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>amager strandpark, græsplæne</t>
+          <t>10-øren, snebærkrat</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD00495</t>
+          <t>MFD00496</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>55.6466240941205</v>
+        <v>55.6469150102599</v>
       </c>
       <c r="D48">
-        <v>12.6439963545977</v>
+        <v>12.6432607276141</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-øren, snebærkrat</t>
+          <t>10-øren, rosenkrat langs vej</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4100,84 +4100,6 @@
         </is>
       </c>
       <c r="P48" t="inlineStr">
-        <is>
-          <t>Parks</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MFD00496</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>55.6469150102599</v>
-      </c>
-      <c r="D49">
-        <v>12.6432607276141</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>city_parks</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6410</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>10-øren</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2017-11-14</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>10-øren, rosenkrat langs vej</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>P03_1</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2017-11-14</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>

--- a/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P03_1/P03_1_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -503,15 +503,10 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -541,7 +536,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -581,15 +576,10 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -619,7 +609,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -659,15 +649,10 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -697,7 +682,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -737,15 +722,10 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -775,7 +755,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -815,15 +795,10 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -853,7 +828,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -893,15 +868,10 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -931,7 +901,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -971,15 +941,10 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1009,7 +974,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1049,15 +1014,10 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1087,7 +1047,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1127,15 +1087,10 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1165,7 +1120,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1205,15 +1160,10 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1243,7 +1193,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1283,15 +1233,10 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1321,7 +1266,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1361,15 +1306,10 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1399,7 +1339,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1439,15 +1379,10 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1477,7 +1412,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1517,15 +1452,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1555,7 +1485,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1595,15 +1525,10 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1633,7 +1558,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1673,15 +1598,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1711,7 +1631,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1751,15 +1671,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -1789,7 +1704,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1829,15 +1744,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1867,7 +1777,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1907,15 +1817,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -1945,7 +1850,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1985,15 +1890,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2023,7 +1923,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2063,15 +1963,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2101,7 +1996,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2141,15 +2036,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2179,7 +2069,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2219,15 +2109,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2257,7 +2142,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2297,15 +2182,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2335,7 +2215,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2375,15 +2255,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2413,7 +2288,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2453,15 +2328,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2491,7 +2361,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2531,15 +2401,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2569,7 +2434,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2609,15 +2474,10 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2647,7 +2507,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2687,15 +2547,10 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -2725,7 +2580,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2765,15 +2620,10 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -2803,7 +2653,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2843,15 +2693,10 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -2881,7 +2726,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2921,15 +2766,10 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -2959,7 +2799,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2999,15 +2839,10 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3037,7 +2872,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3077,15 +2912,10 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3115,7 +2945,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3155,15 +2985,10 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3193,7 +3018,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3233,15 +3058,10 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3271,7 +3091,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3311,15 +3131,10 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3349,7 +3164,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3389,15 +3204,10 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3427,7 +3237,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3467,15 +3277,10 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -3505,7 +3310,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3545,15 +3350,10 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3661,7 +3461,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3701,15 +3501,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3895,7 +3690,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3935,15 +3730,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -3973,7 +3763,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4013,15 +3803,10 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
@@ -4051,7 +3836,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4091,15 +3876,10 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Greenspaces</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
-        <is>
-          <t>Greenspaces</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
         <is>
           <t>Parks</t>
         </is>
